--- a/GBDS AUGUST FILES 2025/SHORT OVER ALL ROUTES.xlsx
+++ b/GBDS AUGUST FILES 2025/SHORT OVER ALL ROUTES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS AUGUST FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB73B376-3611-424B-B809-B7FD257B8BA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A9D80E-C041-4223-916A-5103B0A8205C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="AUGUST. SRS R1" sheetId="6" r:id="rId1"/>
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1128,7 +1128,9 @@
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="12"/>
+      <c r="E17" s="12">
+        <v>2366.25</v>
+      </c>
       <c r="F17" s="11"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1150,7 +1152,9 @@
         <v>45878</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="15"/>
+      <c r="D18" s="15">
+        <v>1664</v>
+      </c>
       <c r="E18" s="12"/>
       <c r="F18" s="11"/>
       <c r="G18" s="1"/>
@@ -1197,7 +1201,9 @@
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="12"/>
+      <c r="E20" s="12">
+        <v>2329</v>
+      </c>
       <c r="F20" s="11"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1721,11 +1727,11 @@
       </c>
       <c r="D43" s="35">
         <f>SUM(D10:D42)</f>
-        <v>6099</v>
+        <v>7763</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>2939.5</v>
+        <v>7634.75</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4897,7 +4903,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5271,7 +5277,9 @@
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="12"/>
+      <c r="E17" s="12">
+        <v>44.25</v>
+      </c>
       <c r="F17" s="11"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -5293,7 +5301,9 @@
         <v>45878</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="15"/>
+      <c r="D18" s="15">
+        <v>3403.5</v>
+      </c>
       <c r="E18" s="12"/>
       <c r="F18" s="11"/>
       <c r="G18" s="1"/>
@@ -5340,7 +5350,9 @@
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="12"/>
+      <c r="E20" s="12">
+        <v>556.5</v>
+      </c>
       <c r="F20" s="11"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -5864,11 +5876,11 @@
       </c>
       <c r="D43" s="35">
         <f>SUM(D10:D42)</f>
-        <v>32289.5</v>
+        <v>35693</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>6635</v>
+        <v>7235.75</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9039,8 +9051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9413,7 +9425,9 @@
         <v>45877</v>
       </c>
       <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
+      <c r="D17" s="15">
+        <v>13221.75</v>
+      </c>
       <c r="E17" s="12"/>
       <c r="F17" s="11"/>
       <c r="G17" s="1"/>
@@ -9437,7 +9451,9 @@
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="12"/>
+      <c r="E18" s="12">
+        <v>12552.75</v>
+      </c>
       <c r="F18" s="11"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -9482,7 +9498,9 @@
         <v>45880</v>
       </c>
       <c r="C20" s="12"/>
-      <c r="D20" s="15"/>
+      <c r="D20" s="15">
+        <v>3847</v>
+      </c>
       <c r="E20" s="12"/>
       <c r="F20" s="11"/>
       <c r="G20" s="1"/>
@@ -10007,11 +10025,11 @@
       </c>
       <c r="D43" s="35">
         <f>SUM(D10:D42)</f>
-        <v>12092.5</v>
+        <v>29161.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>5602.25</v>
+        <v>18155</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS AUGUST FILES 2025/SHORT OVER ALL ROUTES.xlsx
+++ b/GBDS AUGUST FILES 2025/SHORT OVER ALL ROUTES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS AUGUST FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A9D80E-C041-4223-916A-5103B0A8205C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3462E969-E699-4958-B444-480F336CE30F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="AUGUST. SRS R1" sheetId="6" r:id="rId1"/>
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1225,7 +1225,9 @@
         <v>45881</v>
       </c>
       <c r="C21" s="12"/>
-      <c r="D21" s="15"/>
+      <c r="D21" s="15">
+        <v>25.5</v>
+      </c>
       <c r="E21" s="12"/>
       <c r="F21" s="11"/>
       <c r="G21" s="1"/>
@@ -1248,7 +1250,9 @@
         <v>45882</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="15"/>
+      <c r="D22" s="15">
+        <v>6181.5</v>
+      </c>
       <c r="E22" s="12"/>
       <c r="F22" s="11"/>
       <c r="G22" s="1"/>
@@ -1727,7 +1731,7 @@
       </c>
       <c r="D43" s="35">
         <f>SUM(D10:D42)</f>
-        <v>7763</v>
+        <v>13970</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -4903,7 +4907,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5375,7 +5379,9 @@
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="12"/>
+      <c r="E21" s="12">
+        <v>585</v>
+      </c>
       <c r="F21" s="11"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -5397,7 +5403,9 @@
         <v>45882</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="15"/>
+      <c r="D22" s="15">
+        <v>2300</v>
+      </c>
       <c r="E22" s="12"/>
       <c r="F22" s="11"/>
       <c r="G22" s="1"/>
@@ -5420,7 +5428,9 @@
         <v>45883</v>
       </c>
       <c r="C23" s="12"/>
-      <c r="D23" s="15"/>
+      <c r="D23" s="15">
+        <v>8426</v>
+      </c>
       <c r="E23" s="12"/>
       <c r="F23" s="11"/>
       <c r="G23" s="1"/>
@@ -5876,11 +5886,11 @@
       </c>
       <c r="D43" s="35">
         <f>SUM(D10:D42)</f>
-        <v>35693</v>
+        <v>46419</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>7235.75</v>
+        <v>7820.75</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9051,8 +9061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9524,7 +9534,9 @@
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="12"/>
+      <c r="E21" s="12">
+        <v>1224.5</v>
+      </c>
       <c r="F21" s="11"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -9547,7 +9559,9 @@
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="12"/>
+      <c r="E22" s="12">
+        <v>10614</v>
+      </c>
       <c r="F22" s="11"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -9569,7 +9583,9 @@
         <v>45883</v>
       </c>
       <c r="C23" s="12"/>
-      <c r="D23" s="15"/>
+      <c r="D23" s="15">
+        <v>3309</v>
+      </c>
       <c r="E23" s="12"/>
       <c r="F23" s="11"/>
       <c r="G23" s="1"/>
@@ -10025,11 +10041,11 @@
       </c>
       <c r="D43" s="35">
         <f>SUM(D10:D42)</f>
-        <v>29161.25</v>
+        <v>32470.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>18155</v>
+        <v>29993.5</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS AUGUST FILES 2025/SHORT OVER ALL ROUTES.xlsx
+++ b/GBDS AUGUST FILES 2025/SHORT OVER ALL ROUTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS AUGUST FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3462E969-E699-4958-B444-480F336CE30F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC47439E-19A3-426C-B21E-2C7EAA2D4AC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="17">
   <si>
     <t>SALES</t>
   </si>
@@ -754,7 +754,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1274,10 +1274,12 @@
       <c r="B23" s="34">
         <v>45883</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="11"/>
+      <c r="C23" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="38"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="7"/>
@@ -1297,10 +1299,12 @@
       <c r="B24" s="34">
         <v>45884</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="11"/>
+      <c r="C24" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="7"/>
@@ -1321,7 +1325,9 @@
         <v>45885</v>
       </c>
       <c r="C25" s="12"/>
-      <c r="D25" s="15"/>
+      <c r="D25" s="15">
+        <v>1947.5</v>
+      </c>
       <c r="F25" s="11"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1367,7 +1373,9 @@
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="15"/>
-      <c r="E27" s="12"/>
+      <c r="E27" s="12">
+        <v>434.25</v>
+      </c>
       <c r="F27" s="11"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1731,11 +1739,11 @@
       </c>
       <c r="D43" s="35">
         <f>SUM(D10:D42)</f>
-        <v>13970</v>
+        <v>15917.5</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>7634.75</v>
+        <v>8069</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4894,8 +4902,10 @@
       <c r="E279"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C23:F23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4907,7 +4917,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5452,10 +5462,12 @@
       <c r="B24" s="34">
         <v>45884</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="11"/>
+      <c r="C24" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="7"/>
@@ -5476,7 +5488,9 @@
         <v>45885</v>
       </c>
       <c r="C25" s="12"/>
-      <c r="D25" s="15"/>
+      <c r="D25" s="15">
+        <v>1206</v>
+      </c>
       <c r="F25" s="11"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -5522,7 +5536,9 @@
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="15"/>
-      <c r="E27" s="12"/>
+      <c r="E27" s="12">
+        <v>1185.5</v>
+      </c>
       <c r="F27" s="11"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -5886,11 +5902,11 @@
       </c>
       <c r="D43" s="35">
         <f>SUM(D10:D42)</f>
-        <v>46419</v>
+        <v>47625</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>7820.75</v>
+        <v>9006.25</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9049,8 +9065,9 @@
       <c r="E279"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C24:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9062,7 +9079,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9607,10 +9624,12 @@
       <c r="B24" s="34">
         <v>45884</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="11"/>
+      <c r="C24" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="7"/>
@@ -9631,7 +9650,9 @@
         <v>45885</v>
       </c>
       <c r="C25" s="12"/>
-      <c r="D25" s="15"/>
+      <c r="D25" s="15">
+        <v>266</v>
+      </c>
       <c r="F25" s="11"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -9676,7 +9697,9 @@
         <v>45887</v>
       </c>
       <c r="C27" s="12"/>
-      <c r="D27" s="15"/>
+      <c r="D27" s="15">
+        <v>145</v>
+      </c>
       <c r="E27" s="12"/>
       <c r="F27" s="11"/>
       <c r="G27" s="1"/>
@@ -10041,7 +10064,7 @@
       </c>
       <c r="D43" s="35">
         <f>SUM(D10:D42)</f>
-        <v>32470.25</v>
+        <v>32881.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -13204,8 +13227,9 @@
       <c r="E279"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C24:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/GBDS AUGUST FILES 2025/SHORT OVER ALL ROUTES.xlsx
+++ b/GBDS AUGUST FILES 2025/SHORT OVER ALL ROUTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS AUGUST FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC47439E-19A3-426C-B21E-2C7EAA2D4AC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5E5A94-8646-49AD-8D0C-B66A44444326}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -1397,7 +1397,9 @@
         <v>45888</v>
       </c>
       <c r="C28" s="12"/>
-      <c r="D28" s="15"/>
+      <c r="D28" s="15">
+        <v>4884.5</v>
+      </c>
       <c r="E28" s="12"/>
       <c r="F28" s="11"/>
       <c r="G28" s="1"/>
@@ -1739,7 +1741,7 @@
       </c>
       <c r="D43" s="35">
         <f>SUM(D10:D42)</f>
-        <v>15917.5</v>
+        <v>20802</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -4917,7 +4919,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5560,7 +5562,9 @@
         <v>45888</v>
       </c>
       <c r="C28" s="12"/>
-      <c r="D28" s="15"/>
+      <c r="D28" s="15">
+        <v>846.75</v>
+      </c>
       <c r="E28" s="12"/>
       <c r="F28" s="11"/>
       <c r="G28" s="1"/>
@@ -5902,7 +5906,7 @@
       </c>
       <c r="D43" s="35">
         <f>SUM(D10:D42)</f>
-        <v>47625</v>
+        <v>48471.75</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -9079,7 +9083,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9722,7 +9726,9 @@
         <v>45888</v>
       </c>
       <c r="C28" s="12"/>
-      <c r="D28" s="15"/>
+      <c r="D28" s="15">
+        <v>1252.5</v>
+      </c>
       <c r="E28" s="12"/>
       <c r="F28" s="11"/>
       <c r="G28" s="1"/>
@@ -10064,7 +10070,7 @@
       </c>
       <c r="D43" s="35">
         <f>SUM(D10:D42)</f>
-        <v>32881.25</v>
+        <v>34133.75</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS AUGUST FILES 2025/SHORT OVER ALL ROUTES.xlsx
+++ b/GBDS AUGUST FILES 2025/SHORT OVER ALL ROUTES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS AUGUST FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5E5A94-8646-49AD-8D0C-B66A44444326}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9455CF29-B70A-4991-B563-89D24A2B98F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="AUGUST. SRS R1" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="17">
   <si>
     <t>SALES</t>
   </si>
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1421,10 +1421,12 @@
       <c r="B29" s="34">
         <v>45889</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="11"/>
+      <c r="C29" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="38"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="7"/>
@@ -4904,10 +4906,11 @@
       <c r="E279"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C29:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4919,7 +4922,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5587,7 +5590,9 @@
         <v>45889</v>
       </c>
       <c r="C29" s="12"/>
-      <c r="D29" s="15"/>
+      <c r="D29" s="15">
+        <v>2971.5</v>
+      </c>
       <c r="E29" s="12"/>
       <c r="F29" s="11"/>
       <c r="G29" s="1"/>
@@ -5906,7 +5911,7 @@
       </c>
       <c r="D43" s="35">
         <f>SUM(D10:D42)</f>
-        <v>48471.75</v>
+        <v>51443.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -9082,8 +9087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9750,10 +9755,12 @@
       <c r="B29" s="34">
         <v>45889</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="11"/>
+      <c r="C29" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="38"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="7"/>
@@ -13233,9 +13240,10 @@
       <c r="E279"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C29:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/GBDS AUGUST FILES 2025/SHORT OVER ALL ROUTES.xlsx
+++ b/GBDS AUGUST FILES 2025/SHORT OVER ALL ROUTES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS AUGUST FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9455CF29-B70A-4991-B563-89D24A2B98F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE13A315-F705-4554-905A-26ED196DA661}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="AUGUST. SRS R1" sheetId="6" r:id="rId1"/>
@@ -753,7 +753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -1448,7 +1448,9 @@
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="15"/>
-      <c r="E30" s="12"/>
+      <c r="E30" s="12">
+        <v>2834</v>
+      </c>
       <c r="F30" s="11"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1747,7 +1749,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>8069</v>
+        <v>10903</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4922,7 +4924,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5616,7 +5618,9 @@
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="15"/>
-      <c r="E30" s="12"/>
+      <c r="E30" s="12">
+        <v>3161.25</v>
+      </c>
       <c r="F30" s="11"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -5915,7 +5919,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>9006.25</v>
+        <v>12167.5</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9087,8 +9091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:F29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9781,7 +9785,9 @@
         <v>45890</v>
       </c>
       <c r="C30" s="12"/>
-      <c r="D30" s="15"/>
+      <c r="D30" s="15">
+        <v>1961</v>
+      </c>
       <c r="E30" s="12"/>
       <c r="F30" s="11"/>
       <c r="G30" s="1"/>
@@ -10077,7 +10083,7 @@
       </c>
       <c r="D43" s="35">
         <f>SUM(D10:D42)</f>
-        <v>34133.75</v>
+        <v>36094.75</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS AUGUST FILES 2025/SHORT OVER ALL ROUTES.xlsx
+++ b/GBDS AUGUST FILES 2025/SHORT OVER ALL ROUTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS AUGUST FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE13A315-F705-4554-905A-26ED196DA661}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7694A3-4CE4-4812-91EF-142CD8F12315}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1472,7 +1472,9 @@
         <v>45891</v>
       </c>
       <c r="C31" s="12"/>
-      <c r="D31" s="15"/>
+      <c r="D31" s="15">
+        <v>232.25</v>
+      </c>
       <c r="E31" s="12"/>
       <c r="F31" s="11"/>
       <c r="G31" s="1"/>
@@ -1496,7 +1498,9 @@
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="12"/>
+      <c r="E32" s="12">
+        <v>2535.5</v>
+      </c>
       <c r="F32" s="11"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1745,11 +1749,11 @@
       </c>
       <c r="D43" s="35">
         <f>SUM(D10:D42)</f>
-        <v>20802</v>
+        <v>21034.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>10903</v>
+        <v>13438.5</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4924,7 +4928,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5642,7 +5646,9 @@
         <v>45891</v>
       </c>
       <c r="C31" s="12"/>
-      <c r="D31" s="15"/>
+      <c r="D31" s="15">
+        <v>1828.75</v>
+      </c>
       <c r="E31" s="12"/>
       <c r="F31" s="11"/>
       <c r="G31" s="1"/>
@@ -5665,7 +5671,9 @@
         <v>45892</v>
       </c>
       <c r="C32" s="12"/>
-      <c r="D32" s="15"/>
+      <c r="D32" s="15">
+        <v>8409</v>
+      </c>
       <c r="E32" s="12"/>
       <c r="F32" s="11"/>
       <c r="G32" s="1"/>
@@ -5915,7 +5923,7 @@
       </c>
       <c r="D43" s="35">
         <f>SUM(D10:D42)</f>
-        <v>51443.25</v>
+        <v>61681</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -9092,7 +9100,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9810,7 +9818,9 @@
         <v>45891</v>
       </c>
       <c r="C31" s="12"/>
-      <c r="D31" s="15"/>
+      <c r="D31" s="15">
+        <v>1924.25</v>
+      </c>
       <c r="E31" s="12"/>
       <c r="F31" s="11"/>
       <c r="G31" s="1"/>
@@ -9834,7 +9844,10 @@
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="12"/>
+      <c r="E32" s="12">
+        <f>1582.25+-2.5</f>
+        <v>1579.75</v>
+      </c>
       <c r="F32" s="11"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -10083,11 +10096,11 @@
       </c>
       <c r="D43" s="35">
         <f>SUM(D10:D42)</f>
-        <v>36094.75</v>
+        <v>38019</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>29993.5</v>
+        <v>31573.25</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
